--- a/sputnik/personal/ee/191ee.xlsx
+++ b/sputnik/personal/ee/191ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,7 +39,25 @@
     <t>Начислены пени за просрочку оплаты на 143 дн: 1785,26 х 0,1% х 103 (143-40) = 183,88</t>
   </si>
   <si>
-    <t>переплата</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>итого с пенями</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -53,9 +65,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,11 +98,19 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -177,9 +197,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -192,15 +209,22 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -508,340 +532,398 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F2:F4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="F1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>43874</v>
-      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43570</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4817</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2386</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
-        <v>5918</v>
-      </c>
-      <c r="D3" s="2">
-        <f>SUM(C3,-C5)</f>
-        <v>285</v>
-      </c>
-      <c r="E3" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F3" s="5">
-        <f>D3*E3</f>
-        <v>1279.6500000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2">
+        <v>4990</v>
+      </c>
+      <c r="D4" s="2">
+        <f>SUM(C4,-C2)</f>
+        <v>173</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
+        <v>790.61</v>
+      </c>
+      <c r="G4" s="12">
+        <f>SUM(F4,F5)</f>
+        <v>831.24</v>
+      </c>
+      <c r="H4" s="12">
+        <v>831.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>2805</v>
-      </c>
-      <c r="D4" s="2">
-        <f>SUM(C4,-C6)</f>
-        <v>120</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F4" s="5">
-        <f>D4*E4</f>
-        <v>291.60000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="C5" s="2">
+        <v>2403</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D11" si="1">SUM(C5,-C3)</f>
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="0"/>
+        <v>40.630000000000003</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>43810</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5309</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>319</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.57</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" ref="F6:F11" si="2">D6*E6</f>
+        <v>1457.8300000000002</v>
+      </c>
+      <c r="G6" s="12">
+        <f>SUM(F6,F7)</f>
+        <v>1785.2600000000002</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1785.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2540</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.39</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="2"/>
+        <v>327.43</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>43847</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>5633</v>
-      </c>
-      <c r="D5" s="2">
-        <f>SUM(C5,-C8)</f>
-        <v>324</v>
-      </c>
-      <c r="E5" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F5" s="5">
-        <f>D5*E5</f>
-        <v>1480.68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2685</v>
-      </c>
-      <c r="D6" s="2">
-        <f>SUM(C6,-C9)</f>
-        <v>145</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F6" s="5">
-        <f>D6*E6</f>
-        <v>346.55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>43810</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>43810</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>5309</v>
+        <v>5633</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D13" si="0">SUM(C8,-C10)</f>
-        <v>319</v>
-      </c>
-      <c r="E8" s="7">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="E8" s="6">
         <v>4.57</v>
       </c>
-      <c r="F8" s="5">
-        <f>D8*E8</f>
-        <v>1457.8300000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="10">
+        <f t="shared" si="2"/>
+        <v>1480.68</v>
+      </c>
+      <c r="G8" s="12">
+        <f>SUM(F8,F9)</f>
+        <v>1827.23</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1827.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8">
-        <v>2540</v>
+      <c r="C9" s="7">
+        <v>2685</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>137</v>
+        <f t="shared" si="1"/>
+        <v>145</v>
       </c>
       <c r="E9" s="2">
         <v>2.39</v>
       </c>
-      <c r="F9" s="5">
-        <f>D9*E9</f>
-        <v>327.43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="10">
+        <f t="shared" si="2"/>
+        <v>346.55</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>43665</v>
+        <v>43874</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>4990</v>
+        <v>5918</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>173</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" ref="F10:F15" si="1">D10*E10</f>
-        <v>790.61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>285</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="2"/>
+        <v>1279.6500000000001</v>
+      </c>
+      <c r="G10" s="12">
+        <f>SUM(F10,F11)</f>
+        <v>1571.25</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1589.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>2403</v>
+        <v>2805</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="E11" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="1"/>
-        <v>40.630000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="2"/>
+        <v>291.60000000000002</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>43570</v>
+        <v>43901</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>4817</v>
+        <v>6195</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>204</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="1"/>
-        <v>932.28000000000009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D12:D13" si="3">SUM(C12,-C10)</f>
+        <v>277</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
+        <v>1243.73</v>
+      </c>
+      <c r="G12" s="12">
+        <f>SUM(F12,F13)</f>
+        <v>1540.19</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1557.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>2386</v>
+        <v>2927</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>122</v>
       </c>
       <c r="E13" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="1"/>
-        <v>64.53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>43570</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4613</v>
-      </c>
-      <c r="D14" s="2">
-        <v>362</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="1"/>
-        <v>1654.3400000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2359</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5"/>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="4"/>
+        <v>296.46000000000004</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="12">
+        <f>SUM(G2:G13)</f>
+        <v>7555.17</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUM(H2:H13)</f>
+        <v>7590.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>43810</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="11">
+        <v>183.88</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="12">
+        <f>SUM(G14,G15)</f>
+        <v>7739.05</v>
+      </c>
+      <c r="H16" s="12">
+        <f>SUM(H14,H15)</f>
+        <v>7590.45</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12">
+        <f>SUM(H16,-G16)</f>
+        <v>-148.60000000000036</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B15:F15"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/191ee.xlsx
+++ b/sputnik/personal/ee/191ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -532,10 +532,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -865,65 +865,116 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
+      <c r="A14" s="3">
+        <v>43948</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6374</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="5">SUM(C14,-C12)</f>
+        <v>179</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
+        <v>803.71</v>
+      </c>
+      <c r="G14" s="12">
+        <f>SUM(F14,F15)</f>
+        <v>966.52</v>
+      </c>
+      <c r="H14" s="12">
+        <v>978.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2994</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="6"/>
+        <v>162.81</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="12">
-        <f>SUM(G2:G13)</f>
-        <v>7555.17</v>
-      </c>
-      <c r="H14" s="12">
-        <f>SUM(H2:H13)</f>
-        <v>7590.45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="G16" s="12">
+        <f>SUM(G2:G15)</f>
+        <v>8521.69</v>
+      </c>
+      <c r="H16" s="12">
+        <f>SUM(H2:H15)</f>
+        <v>8568.61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>43810</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="11">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="11">
         <v>183.88</v>
       </c>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="11" t="s">
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="12">
-        <f>SUM(G14,G15)</f>
-        <v>7739.05</v>
-      </c>
-      <c r="H16" s="12">
-        <f>SUM(H14,H15)</f>
-        <v>7590.45</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="11" t="s">
+      <c r="G18" s="12">
+        <f>SUM(G16,G17)</f>
+        <v>8705.57</v>
+      </c>
+      <c r="H18" s="12">
+        <f>SUM(H16,H17)</f>
+        <v>8568.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12">
-        <f>SUM(H16,-G16)</f>
-        <v>-148.60000000000036</v>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12">
+        <f>SUM(H18,-G18)</f>
+        <v>-136.95999999999913</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B17:F17"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/191ee.xlsx
+++ b/sputnik/personal/ee/191ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -36,9 +36,6 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>Начислены пени за просрочку оплаты на 143 дн: 1785,26 х 0,1% х 103 (143-40) = 183,88</t>
-  </si>
-  <si>
     <t>День/ ночь</t>
   </si>
   <si>
@@ -54,10 +51,10 @@
     <t>итого за период</t>
   </si>
   <si>
-    <t>итого с пенями</t>
-  </si>
-  <si>
-    <t>к доплате</t>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>Нач пени за просрочку на 143 дн: 1785,26 х 0,1% х 103 (143-40) = 183,88</t>
   </si>
 </sst>
 </file>
@@ -67,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +109,29 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -170,22 +190,42 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -223,8 +263,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -532,10 +585,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -558,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>4</v>
@@ -570,13 +623,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -647,7 +700,7 @@
         <v>2403</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D11" si="1">SUM(C5,-C3)</f>
+        <f t="shared" ref="D5:D12" si="1">SUM(C5,-C3)</f>
         <v>17</v>
       </c>
       <c r="E5" s="2">
@@ -678,7 +731,7 @@
         <v>4.57</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" ref="F6:F11" si="2">D6*E6</f>
+        <f t="shared" ref="F6:F12" si="2">D6*E6</f>
         <v>1457.8300000000002</v>
       </c>
       <c r="G6" s="12">
@@ -711,270 +764,342 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>43810</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>183.88</v>
+      </c>
+      <c r="G8" s="17">
+        <v>183.88</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>43847</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>5633</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" si="1"/>
+      <c r="D9" s="2">
+        <f>SUM(C9,-C6)</f>
         <v>324</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="6">
         <v>4.57</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F9" s="10">
         <f t="shared" si="2"/>
         <v>1480.68</v>
       </c>
-      <c r="G8" s="12">
-        <f>SUM(F8,F9)</f>
+      <c r="G9" s="12">
+        <f>SUM(F9,F10)</f>
         <v>1827.23</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H9" s="12">
         <v>1827.23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="7">
         <v>2685</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
+      <c r="D10" s="2">
+        <f>SUM(C10,-C7)</f>
         <v>145</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>2.39</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F10" s="10">
         <f t="shared" si="2"/>
         <v>346.55</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>43874</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>5918</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E11" s="6">
         <v>4.49</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F11" s="10">
         <f t="shared" si="2"/>
         <v>1279.6500000000001</v>
       </c>
-      <c r="G10" s="12">
-        <f>SUM(F10,F11)</f>
+      <c r="G11" s="12">
+        <f>SUM(F11,F12)</f>
         <v>1571.25</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H11" s="12">
         <v>1589.25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>2805</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F12" s="10">
         <f t="shared" si="2"/>
         <v>291.60000000000002</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>43901</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <v>6195</v>
       </c>
-      <c r="D12" s="2">
-        <f t="shared" ref="D12:D13" si="3">SUM(C12,-C10)</f>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:D14" si="3">SUM(C13,-C11)</f>
         <v>277</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <v>4.49</v>
       </c>
-      <c r="F12" s="10">
-        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
+      <c r="F13" s="10">
+        <f t="shared" ref="F13:F14" si="4">D13*E13</f>
         <v>1243.73</v>
       </c>
-      <c r="G12" s="12">
-        <f>SUM(F12,F13)</f>
+      <c r="G13" s="12">
+        <f>SUM(F13,F14)</f>
         <v>1540.19</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H13" s="12">
         <v>1557.47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>2927</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F14" s="10">
         <f t="shared" si="4"/>
         <v>296.46000000000004</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>43948</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <v>6374</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:D15" si="5">SUM(C14,-C12)</f>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15:D16" si="5">SUM(C15,-C13)</f>
         <v>179</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <v>4.49</v>
       </c>
-      <c r="F14" s="10">
-        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
+      <c r="F15" s="10">
+        <f t="shared" ref="F15:F16" si="6">D15*E15</f>
         <v>803.71</v>
       </c>
-      <c r="G14" s="12">
-        <f>SUM(F14,F15)</f>
+      <c r="G15" s="12">
+        <f>SUM(F15,F16)</f>
         <v>966.52</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H15" s="12">
         <v>978.16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>2994</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F16" s="10">
         <f t="shared" si="6"/>
         <v>162.81</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="12">
-        <f>SUM(G2:G15)</f>
-        <v>8521.69</v>
-      </c>
-      <c r="H16" s="12">
-        <f>SUM(H2:H15)</f>
-        <v>8568.61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>43810</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="11">
-        <v>183.88</v>
-      </c>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="12">
-        <f>SUM(G16,G17)</f>
-        <v>8705.57</v>
-      </c>
-      <c r="H18" s="12">
-        <f>SUM(H16,H17)</f>
-        <v>8568.61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44005</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6538</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17:D18" si="7">SUM(C17,-C15)</f>
+        <v>164</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" ref="F17:F18" si="8">D17*E17</f>
+        <v>736.36</v>
+      </c>
+      <c r="G17" s="12">
+        <f>SUM(F17,F18)</f>
+        <v>891.88</v>
+      </c>
+      <c r="H17" s="12">
+        <v>902.44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3058</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="8"/>
+        <v>155.52000000000001</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="G19" s="12">
+        <f>SUM(G2:G18)</f>
+        <v>9597.4500000000007</v>
+      </c>
       <c r="H19" s="12">
-        <f>SUM(H18,-G18)</f>
-        <v>-136.95999999999913</v>
-      </c>
+        <f>SUM(H2:H18)</f>
+        <v>9471.0500000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="23">
+        <f>SUM(H19,-G19)</f>
+        <v>-126.39999999999964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B20:F20"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/191ee.xlsx
+++ b/sputnik/personal/ee/191ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -257,12 +257,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -273,11 +267,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -585,10 +585,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -774,19 +774,19 @@
       <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>0</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>183.88</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <v>183.88</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="14">
         <v>0</v>
       </c>
     </row>
@@ -1046,60 +1046,111 @@
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
+      <c r="A19" s="3">
+        <v>44068</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6687</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:D20" si="9">SUM(C19,-C17)</f>
+        <v>149</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" ref="F19:F20" si="10">D19*E19</f>
+        <v>701.79</v>
+      </c>
+      <c r="G19" s="12">
+        <f>SUM(F19,F20)</f>
+        <v>826.74</v>
+      </c>
+      <c r="H19" s="12">
+        <v>826.74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3107</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="10"/>
+        <v>124.94999999999999</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G21" s="12">
         <f>SUM(G2:G18)</f>
         <v>9597.4500000000007</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H21" s="12">
         <f>SUM(H2:H18)</f>
         <v>9471.0500000000011</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="23">
-        <f>SUM(H19,-G19)</f>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="19">
+        <f>SUM(H21,-G21)</f>
         <v>-126.39999999999964</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="18"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B22:F22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/191ee.xlsx
+++ b/sputnik/personal/ee/191ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -92,12 +92,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -127,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -147,6 +159,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -427,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,32 +485,32 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>44068</v>
+      <c r="A2" s="11">
+        <v>44308</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>6687</v>
+        <v>7507</v>
       </c>
       <c r="D2" s="3">
-        <f>SUM(C2,-C4)</f>
-        <v>149</v>
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
+        <v>136</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F11" si="0">D2*E2</f>
-        <v>701.79</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>640.55999999999995</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>826.74</v>
+        <v>824.16</v>
       </c>
       <c r="H2" s="8">
-        <v>826.74</v>
+        <v>761.3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -504,49 +519,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>3107</v>
+        <v>3473</v>
       </c>
       <c r="D3" s="3">
-        <f>SUM(C3,-C5)</f>
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" si="0"/>
-        <v>124.94999999999999</v>
+        <f t="shared" si="1"/>
+        <v>183.6</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>44005</v>
+      <c r="A4" s="12">
+        <v>44305</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>6538</v>
+        <v>7371</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="1">SUM(C4,-C6)</f>
-        <v>164</v>
+        <f t="shared" ref="D4:D7" si="2">SUM(C4,-C6)</f>
+        <v>142</v>
       </c>
       <c r="E4" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="0"/>
-        <v>736.36</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>668.82</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" ref="G4:G10" si="2">SUM(F4,F5)</f>
-        <v>891.88</v>
+        <f>SUM(F4,F5)</f>
+        <v>811.62</v>
       </c>
       <c r="H4" s="8">
-        <v>902.44</v>
+        <v>773.66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -555,151 +570,151 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>3058</v>
+        <v>3401</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <f t="shared" si="2"/>
+        <v>56</v>
       </c>
       <c r="E5" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>155.52000000000001</v>
+        <f t="shared" si="3"/>
+        <v>142.79999999999998</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43948</v>
+      <c r="A6" s="12">
+        <v>44295</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>6374</v>
+        <v>7229</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="1"/>
-        <v>179</v>
+        <f t="shared" si="2"/>
+        <v>109</v>
       </c>
       <c r="E6" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>803.71</v>
+        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
+        <v>513.39</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="2"/>
-        <v>966.52</v>
+        <f>SUM(F6,F7)</f>
+        <v>725.04</v>
       </c>
       <c r="H6" s="8">
-        <v>978.16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>691.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>2994</v>
+        <v>3345</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>67</v>
+        <f t="shared" si="2"/>
+        <v>83</v>
       </c>
       <c r="E7" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>162.81</v>
+        <f t="shared" si="4"/>
+        <v>211.64999999999998</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43901</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>44266</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>6195</v>
+        <v>7120</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>277</v>
+        <f t="shared" ref="D8:D15" si="5">SUM(C8,-C10)</f>
+        <v>146</v>
       </c>
       <c r="E8" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="0"/>
-        <v>1243.73</v>
+        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
+        <v>687.66</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="2"/>
-        <v>1540.19</v>
+        <f>SUM(F8,F9)</f>
+        <v>812.6099999999999</v>
       </c>
       <c r="H8" s="8">
-        <v>1557.47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>774.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>2927</v>
+        <v>3262</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>122</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="E9" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>296.46000000000004</v>
-      </c>
-      <c r="G9" s="3"/>
+        <f t="shared" si="6"/>
+        <v>124.94999999999999</v>
+      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43874</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>44244</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>5918</v>
+        <v>6974</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>285</v>
+        <f t="shared" si="5"/>
+        <v>123</v>
       </c>
       <c r="E10" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="0"/>
-        <v>1279.6500000000001</v>
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>579.33000000000004</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="2"/>
-        <v>1571.25</v>
+        <f>SUM(F10,F11)</f>
+        <v>768.03</v>
       </c>
       <c r="H10" s="8">
-        <v>1589.25</v>
+        <v>768.03</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -708,67 +723,396 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>2805</v>
+        <v>3213</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <f t="shared" si="5"/>
+        <v>74</v>
       </c>
       <c r="E11" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>291.60000000000002</v>
+        <f t="shared" si="7"/>
+        <v>188.7</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43847</v>
+      <c r="A12" s="12">
+        <v>44236</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="10">
-        <v>5633</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="C12" s="3">
+        <v>6851</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="5"/>
+        <v>164</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="8">D12*E12</f>
+        <v>772.43999999999994</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>854.04</v>
+      </c>
+      <c r="H12" s="8">
+        <v>854.04</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="3">
+        <v>3139</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="8"/>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44068</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6687</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="5"/>
+        <v>149</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F23" si="9">D14*E14</f>
+        <v>701.79</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(F14,F15)</f>
+        <v>826.74</v>
+      </c>
+      <c r="H14" s="8">
+        <v>826.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3107</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="9"/>
+        <v>124.94999999999999</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6538</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D23" si="10">SUM(C16,-C18)</f>
+        <v>164</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="9"/>
+        <v>736.36</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" ref="G16:G22" si="11">SUM(F16,F17)</f>
+        <v>891.88</v>
+      </c>
+      <c r="H16" s="8">
+        <v>902.44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3058</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="9"/>
+        <v>155.52000000000001</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>43948</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6374</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="10"/>
+        <v>179</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="9"/>
+        <v>803.71</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="11"/>
+        <v>966.52</v>
+      </c>
+      <c r="H18" s="8">
+        <v>978.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2994</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="10"/>
+        <v>67</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="9"/>
+        <v>162.81</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>43901</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6195</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="10"/>
+        <v>277</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="9"/>
+        <v>1243.73</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="11"/>
+        <v>1540.19</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1557.47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2927</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="10"/>
+        <v>122</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="9"/>
+        <v>296.46000000000004</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>43874</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5918</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="10"/>
+        <v>285</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="9"/>
+        <v>1279.6500000000001</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="11"/>
+        <v>1571.25</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1589.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2805</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="9"/>
+        <v>291.60000000000002</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>43847</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="10">
+        <v>5633</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="10">
         <v>2685</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="8">
+        <f>SUM(G2:G25)</f>
+        <v>10592.08</v>
+      </c>
+      <c r="H26" s="8">
+        <f>SUM(H2:H25)</f>
+        <v>10476.799999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="13">
+        <f>SUM(H26,-G26)</f>
+        <v>-115.28000000000065</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/191ee.xlsx
+++ b/sputnik/personal/ee/191ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="K27" sqref="J27:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,31 +486,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44308</v>
+        <v>44347</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>7507</v>
+        <v>7644</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>136</v>
+        <f>SUM(C2,-C4)</f>
+        <v>137</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>640.55999999999995</v>
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>645.27</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>824.16</v>
+        <v>795.72</v>
       </c>
       <c r="H2" s="8">
-        <v>761.3</v>
+        <v>795.72</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -519,49 +519,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>3473</v>
+        <v>3532</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" si="0"/>
-        <v>72</v>
+        <f>SUM(C3,-C5)</f>
+        <v>59</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" si="1"/>
-        <v>183.6</v>
+        <f t="shared" si="0"/>
+        <v>150.44999999999999</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44305</v>
+        <v>44334</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>7371</v>
+        <v>7507</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D7" si="2">SUM(C4,-C6)</f>
-        <v>142</v>
+        <f>SUM(C4,-C6)</f>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>668.82</v>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>0</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>811.62</v>
+        <v>0</v>
       </c>
       <c r="H4" s="8">
-        <v>773.66</v>
+        <v>175.76</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -570,49 +570,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>3401</v>
+        <v>3473</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="2"/>
-        <v>56</v>
+        <f>SUM(C5,-C7)</f>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="3"/>
-        <v>142.79999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44295</v>
+        <v>44308</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>7229</v>
+        <v>7507</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="2"/>
-        <v>109</v>
+        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C8)</f>
+        <v>136</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>513.39</v>
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>640.55999999999995</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>725.04</v>
+        <v>824.16</v>
       </c>
       <c r="H6" s="8">
-        <v>691.1</v>
+        <v>761.3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -621,49 +621,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>3345</v>
+        <v>3473</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="4"/>
-        <v>211.64999999999998</v>
+        <f t="shared" si="3"/>
+        <v>183.6</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44266</v>
+        <v>44305</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>7120</v>
+        <v>7371</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D15" si="5">SUM(C8,-C10)</f>
-        <v>146</v>
+        <f t="shared" ref="D8:D11" si="4">SUM(C8,-C10)</f>
+        <v>142</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>687.66</v>
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>668.82</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>812.6099999999999</v>
+        <v>811.62</v>
       </c>
       <c r="H8" s="8">
-        <v>774.61</v>
+        <v>773.66</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -672,49 +672,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>3262</v>
+        <v>3401</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="5"/>
-        <v>49</v>
+        <f t="shared" si="4"/>
+        <v>56</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="6"/>
-        <v>124.94999999999999</v>
+        <f t="shared" si="5"/>
+        <v>142.79999999999998</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>6974</v>
+        <v>7229</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="5"/>
-        <v>123</v>
+        <f t="shared" si="4"/>
+        <v>109</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
-        <v>579.33000000000004</v>
+        <f t="shared" ref="F10:F11" si="6">D10*E10</f>
+        <v>513.39</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>768.03</v>
+        <v>725.04</v>
       </c>
       <c r="H10" s="8">
-        <v>768.03</v>
+        <v>691.1</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,49 +723,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>3213</v>
+        <v>3345</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="5"/>
-        <v>74</v>
+        <f t="shared" si="4"/>
+        <v>83</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="7"/>
-        <v>188.7</v>
+        <f t="shared" si="6"/>
+        <v>211.64999999999998</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44236</v>
+        <v>44266</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>6851</v>
+        <v>7120</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="5"/>
-        <v>164</v>
+        <f t="shared" ref="D12:D19" si="7">SUM(C12,-C14)</f>
+        <v>146</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:F13" si="8">D12*E12</f>
-        <v>772.43999999999994</v>
+        <v>687.66</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>854.04</v>
+        <v>812.6099999999999</v>
       </c>
       <c r="H12" s="8">
-        <v>854.04</v>
+        <v>774.61</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -774,49 +774,49 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>3139</v>
+        <v>3262</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="5"/>
-        <v>32</v>
+        <f t="shared" si="7"/>
+        <v>49</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="8"/>
-        <v>81.599999999999994</v>
+        <v>124.94999999999999</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>44068</v>
+      <c r="A14" s="12">
+        <v>44244</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>6687</v>
+        <v>6974</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="5"/>
-        <v>149</v>
+        <f t="shared" si="7"/>
+        <v>123</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14:F23" si="9">D14*E14</f>
-        <v>701.79</v>
+        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
+        <v>579.33000000000004</v>
       </c>
       <c r="G14" s="8">
         <f>SUM(F14,F15)</f>
-        <v>826.74</v>
+        <v>768.03</v>
       </c>
       <c r="H14" s="8">
-        <v>826.74</v>
+        <v>768.03</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -825,49 +825,49 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>3107</v>
+        <v>3213</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="5"/>
-        <v>49</v>
+        <f t="shared" si="7"/>
+        <v>74</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="9"/>
-        <v>124.94999999999999</v>
+        <v>188.7</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>44005</v>
+      <c r="A16" s="12">
+        <v>44236</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>6538</v>
+        <v>6851</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ref="D16:D23" si="10">SUM(C16,-C18)</f>
+        <f t="shared" si="7"/>
         <v>164</v>
       </c>
       <c r="E16" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="9"/>
-        <v>736.36</v>
+        <f t="shared" ref="F16:F17" si="10">D16*E16</f>
+        <v>772.43999999999994</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" ref="G16:G22" si="11">SUM(F16,F17)</f>
-        <v>891.88</v>
+        <f>SUM(F16,F17)</f>
+        <v>854.04</v>
       </c>
       <c r="H16" s="8">
-        <v>902.44</v>
+        <v>854.04</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -876,49 +876,49 @@
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>3058</v>
+        <v>3139</v>
       </c>
       <c r="D17" s="3">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
         <f t="shared" si="10"/>
-        <v>64</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="9"/>
-        <v>155.52000000000001</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43948</v>
+        <v>44068</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>6374</v>
+        <v>6687</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="10"/>
-        <v>179</v>
+        <f t="shared" si="7"/>
+        <v>149</v>
       </c>
       <c r="E18" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="9"/>
-        <v>803.71</v>
+        <f t="shared" ref="F18:F27" si="11">D18*E18</f>
+        <v>701.79</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="11"/>
-        <v>966.52</v>
+        <f>SUM(F18,F19)</f>
+        <v>826.74</v>
       </c>
       <c r="H18" s="8">
-        <v>978.16</v>
+        <v>826.74</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -927,49 +927,49 @@
         <v>9</v>
       </c>
       <c r="C19" s="3">
-        <v>2994</v>
+        <v>3107</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="10"/>
-        <v>67</v>
+        <f t="shared" si="7"/>
+        <v>49</v>
       </c>
       <c r="E19" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="9"/>
-        <v>162.81</v>
+        <f t="shared" si="11"/>
+        <v>124.94999999999999</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43901</v>
+        <v>44005</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="3">
-        <v>6195</v>
+        <v>6538</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="10"/>
-        <v>277</v>
+        <f t="shared" ref="D20:D27" si="12">SUM(C20,-C22)</f>
+        <v>164</v>
       </c>
       <c r="E20" s="3">
         <v>4.49</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="9"/>
-        <v>1243.73</v>
+        <f t="shared" si="11"/>
+        <v>736.36</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="11"/>
-        <v>1540.19</v>
+        <f t="shared" ref="G20:G26" si="13">SUM(F20,F21)</f>
+        <v>891.88</v>
       </c>
       <c r="H20" s="8">
-        <v>1557.47</v>
+        <v>902.44</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -978,49 +978,49 @@
         <v>9</v>
       </c>
       <c r="C21" s="3">
-        <v>2927</v>
+        <v>3058</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="10"/>
-        <v>122</v>
+        <f t="shared" si="12"/>
+        <v>64</v>
       </c>
       <c r="E21" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="9"/>
-        <v>296.46000000000004</v>
-      </c>
-      <c r="G21" s="3"/>
+        <f t="shared" si="11"/>
+        <v>155.52000000000001</v>
+      </c>
+      <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43874</v>
+        <v>43948</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="3">
-        <v>5918</v>
+        <v>6374</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="10"/>
-        <v>285</v>
+        <f t="shared" si="12"/>
+        <v>179</v>
       </c>
       <c r="E22" s="3">
         <v>4.49</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="9"/>
-        <v>1279.6500000000001</v>
+        <f t="shared" si="11"/>
+        <v>803.71</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="11"/>
-        <v>1571.25</v>
+        <f t="shared" si="13"/>
+        <v>966.52</v>
       </c>
       <c r="H22" s="8">
-        <v>1589.25</v>
+        <v>978.16</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1029,90 +1029,192 @@
         <v>9</v>
       </c>
       <c r="C23" s="3">
-        <v>2805</v>
+        <v>2994</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="10"/>
-        <v>120</v>
+        <f t="shared" si="12"/>
+        <v>67</v>
       </c>
       <c r="E23" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="9"/>
-        <v>291.60000000000002</v>
+        <f t="shared" si="11"/>
+        <v>162.81</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
+        <v>43901</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6195</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="12"/>
+        <v>277</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="11"/>
+        <v>1243.73</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="13"/>
+        <v>1540.19</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1557.47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2927</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="12"/>
+        <v>122</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="11"/>
+        <v>296.46000000000004</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>43874</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5918</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="12"/>
+        <v>285</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="11"/>
+        <v>1279.6500000000001</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" si="13"/>
+        <v>1571.25</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1589.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2805</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="11"/>
+        <v>291.60000000000002</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>43847</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="10">
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="10">
         <v>5633</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="10">
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="10">
         <v>2685</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="8">
-        <f>SUM(G2:G25)</f>
-        <v>10592.08</v>
-      </c>
-      <c r="H26" s="8">
-        <f>SUM(H2:H25)</f>
-        <v>10476.799999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="13">
-        <f>SUM(H26,-G26)</f>
-        <v>-115.28000000000065</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="8">
+        <f>SUM(G2:G29)</f>
+        <v>11387.8</v>
+      </c>
+      <c r="H30" s="8">
+        <f>SUM(H2:H29)</f>
+        <v>11448.279999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="13">
+        <f>SUM(H30,-G30)</f>
+        <v>60.479999999999563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/191ee.xlsx
+++ b/sputnik/personal/ee/191ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 01.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="J27:K27"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,31 +486,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44347</v>
+        <v>44384</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>7644</v>
+        <v>7797</v>
       </c>
       <c r="D2" s="3">
         <f>SUM(C2,-C4)</f>
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>645.27</v>
+        <v>720.63</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>795.72</v>
+        <v>840.48</v>
       </c>
       <c r="H2" s="8">
-        <v>795.72</v>
+        <v>840.48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -519,49 +519,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>3532</v>
+        <v>3579</v>
       </c>
       <c r="D3" s="3">
         <f>SUM(C3,-C5)</f>
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>150.44999999999999</v>
+        <v>119.85</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44334</v>
+        <v>44347</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>7507</v>
+        <v>7644</v>
       </c>
       <c r="D4" s="3">
         <f>SUM(C4,-C6)</f>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>0</v>
+        <v>645.27</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>0</v>
+        <v>795.72</v>
       </c>
       <c r="H4" s="8">
-        <v>175.76</v>
+        <v>795.72</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -570,25 +570,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>3473</v>
+        <v>3532</v>
       </c>
       <c r="D5" s="3">
         <f>SUM(C5,-C7)</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>150.44999999999999</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44308</v>
+        <v>44334</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -597,22 +597,22 @@
         <v>7507</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C8)</f>
-        <v>136</v>
+        <f>SUM(C6,-C8)</f>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
-        <v>640.55999999999995</v>
+        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
+        <v>0</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>824.16</v>
+        <v>0</v>
       </c>
       <c r="H6" s="8">
-        <v>761.3</v>
+        <v>175.76</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -624,46 +624,46 @@
         <v>3473</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="2"/>
-        <v>72</v>
+        <f>SUM(C7,-C9)</f>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="3"/>
-        <v>183.6</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44305</v>
+        <v>44308</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>7371</v>
+        <v>7507</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D11" si="4">SUM(C8,-C10)</f>
-        <v>142</v>
+        <f t="shared" ref="D8:D9" si="3">SUM(C8,-C10)</f>
+        <v>136</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
-        <v>668.82</v>
+        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
+        <v>640.55999999999995</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>811.62</v>
+        <v>824.16</v>
       </c>
       <c r="H8" s="8">
-        <v>773.66</v>
+        <v>761.3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -672,49 +672,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>3401</v>
+        <v>3473</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="4"/>
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>72</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="5"/>
-        <v>142.79999999999998</v>
+        <f t="shared" si="4"/>
+        <v>183.6</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44295</v>
+        <v>44305</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>7229</v>
+        <v>7371</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="4"/>
-        <v>109</v>
+        <f t="shared" ref="D10:D13" si="5">SUM(C10,-C12)</f>
+        <v>142</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="6">D10*E10</f>
-        <v>513.39</v>
+        <v>668.82</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>725.04</v>
+        <v>811.62</v>
       </c>
       <c r="H10" s="8">
-        <v>691.1</v>
+        <v>773.66</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,49 +723,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>3345</v>
+        <v>3401</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="4"/>
-        <v>83</v>
+        <f t="shared" si="5"/>
+        <v>56</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="6"/>
-        <v>211.64999999999998</v>
+        <v>142.79999999999998</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44266</v>
+        <v>44295</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>7120</v>
+        <v>7229</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D19" si="7">SUM(C12,-C14)</f>
-        <v>146</v>
+        <f t="shared" si="5"/>
+        <v>109</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F12:F13" si="8">D12*E12</f>
-        <v>687.66</v>
+        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
+        <v>513.39</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>812.6099999999999</v>
+        <v>725.04</v>
       </c>
       <c r="H12" s="8">
-        <v>774.61</v>
+        <v>691.1</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -774,49 +774,49 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>3262</v>
+        <v>3345</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="7"/>
-        <v>49</v>
+        <f t="shared" si="5"/>
+        <v>83</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="8"/>
-        <v>124.94999999999999</v>
+        <f t="shared" si="7"/>
+        <v>211.64999999999998</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>44244</v>
+        <v>44266</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>6974</v>
+        <v>7120</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="7"/>
-        <v>123</v>
+        <f t="shared" ref="D14:D21" si="8">SUM(C14,-C16)</f>
+        <v>146</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14:F15" si="9">D14*E14</f>
-        <v>579.33000000000004</v>
+        <v>687.66</v>
       </c>
       <c r="G14" s="8">
         <f>SUM(F14,F15)</f>
-        <v>768.03</v>
+        <v>812.6099999999999</v>
       </c>
       <c r="H14" s="8">
-        <v>768.03</v>
+        <v>774.61</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -825,49 +825,49 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>3213</v>
+        <v>3262</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="7"/>
-        <v>74</v>
+        <f t="shared" si="8"/>
+        <v>49</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="9"/>
-        <v>188.7</v>
+        <v>124.94999999999999</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>44236</v>
+        <v>44244</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>6851</v>
+        <v>6974</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="7"/>
-        <v>164</v>
+        <f t="shared" si="8"/>
+        <v>123</v>
       </c>
       <c r="E16" s="3">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16:F17" si="10">D16*E16</f>
-        <v>772.43999999999994</v>
+        <v>579.33000000000004</v>
       </c>
       <c r="G16" s="8">
         <f>SUM(F16,F17)</f>
-        <v>854.04</v>
+        <v>768.03</v>
       </c>
       <c r="H16" s="8">
-        <v>854.04</v>
+        <v>768.03</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -876,49 +876,49 @@
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>3139</v>
+        <v>3213</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="7"/>
-        <v>32</v>
+        <f t="shared" si="8"/>
+        <v>74</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="10"/>
-        <v>81.599999999999994</v>
+        <v>188.7</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>44068</v>
+      <c r="A18" s="12">
+        <v>44236</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>6687</v>
+        <v>6851</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="7"/>
-        <v>149</v>
+        <f t="shared" si="8"/>
+        <v>164</v>
       </c>
       <c r="E18" s="3">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" ref="F18:F27" si="11">D18*E18</f>
-        <v>701.79</v>
+        <f t="shared" ref="F18:F19" si="11">D18*E18</f>
+        <v>772.43999999999994</v>
       </c>
       <c r="G18" s="8">
         <f>SUM(F18,F19)</f>
-        <v>826.74</v>
+        <v>854.04</v>
       </c>
       <c r="H18" s="8">
-        <v>826.74</v>
+        <v>854.04</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -927,49 +927,49 @@
         <v>9</v>
       </c>
       <c r="C19" s="3">
-        <v>3107</v>
+        <v>3139</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="7"/>
-        <v>49</v>
+        <f t="shared" si="8"/>
+        <v>32</v>
       </c>
       <c r="E19" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="11"/>
-        <v>124.94999999999999</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>44005</v>
+        <v>44068</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="3">
-        <v>6538</v>
+        <v>6687</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" ref="D20:D27" si="12">SUM(C20,-C22)</f>
-        <v>164</v>
+        <f t="shared" si="8"/>
+        <v>149</v>
       </c>
       <c r="E20" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="11"/>
-        <v>736.36</v>
+        <f t="shared" ref="F20:F29" si="12">D20*E20</f>
+        <v>701.79</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" ref="G20:G26" si="13">SUM(F20,F21)</f>
-        <v>891.88</v>
+        <f>SUM(F20,F21)</f>
+        <v>826.74</v>
       </c>
       <c r="H20" s="8">
-        <v>902.44</v>
+        <v>826.74</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -978,49 +978,49 @@
         <v>9</v>
       </c>
       <c r="C21" s="3">
-        <v>3058</v>
+        <v>3107</v>
       </c>
       <c r="D21" s="3">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="8">
         <f t="shared" si="12"/>
-        <v>64</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="11"/>
-        <v>155.52000000000001</v>
+        <v>124.94999999999999</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43948</v>
+        <v>44005</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="3">
-        <v>6374</v>
+        <v>6538</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="12"/>
-        <v>179</v>
+        <f t="shared" ref="D22:D29" si="13">SUM(C22,-C24)</f>
+        <v>164</v>
       </c>
       <c r="E22" s="3">
         <v>4.49</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="11"/>
-        <v>803.71</v>
+        <f t="shared" si="12"/>
+        <v>736.36</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="13"/>
-        <v>966.52</v>
+        <f t="shared" ref="G22:G28" si="14">SUM(F22,F23)</f>
+        <v>891.88</v>
       </c>
       <c r="H22" s="8">
-        <v>978.16</v>
+        <v>902.44</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1029,49 +1029,49 @@
         <v>9</v>
       </c>
       <c r="C23" s="3">
-        <v>2994</v>
+        <v>3058</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="12"/>
-        <v>67</v>
+        <f t="shared" si="13"/>
+        <v>64</v>
       </c>
       <c r="E23" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="11"/>
-        <v>162.81</v>
+        <f t="shared" si="12"/>
+        <v>155.52000000000001</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>43901</v>
+        <v>43948</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="3">
-        <v>6195</v>
+        <v>6374</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="12"/>
-        <v>277</v>
+        <f t="shared" si="13"/>
+        <v>179</v>
       </c>
       <c r="E24" s="3">
         <v>4.49</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="11"/>
-        <v>1243.73</v>
+        <f t="shared" si="12"/>
+        <v>803.71</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="13"/>
-        <v>1540.19</v>
+        <f t="shared" si="14"/>
+        <v>966.52</v>
       </c>
       <c r="H24" s="8">
-        <v>1557.47</v>
+        <v>978.16</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1080,49 +1080,49 @@
         <v>9</v>
       </c>
       <c r="C25" s="3">
-        <v>2927</v>
+        <v>2994</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="12"/>
-        <v>122</v>
+        <f t="shared" si="13"/>
+        <v>67</v>
       </c>
       <c r="E25" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="11"/>
-        <v>296.46000000000004</v>
-      </c>
-      <c r="G25" s="3"/>
+        <f t="shared" si="12"/>
+        <v>162.81</v>
+      </c>
+      <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>43874</v>
+        <v>43901</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="3">
-        <v>5918</v>
+        <v>6195</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="12"/>
-        <v>285</v>
+        <f t="shared" si="13"/>
+        <v>277</v>
       </c>
       <c r="E26" s="3">
         <v>4.49</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="11"/>
-        <v>1279.6500000000001</v>
+        <f t="shared" si="12"/>
+        <v>1243.73</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="13"/>
-        <v>1571.25</v>
+        <f t="shared" si="14"/>
+        <v>1540.19</v>
       </c>
       <c r="H26" s="8">
-        <v>1589.25</v>
+        <v>1557.47</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1131,90 +1131,141 @@
         <v>9</v>
       </c>
       <c r="C27" s="3">
-        <v>2805</v>
+        <v>2927</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="12"/>
-        <v>120</v>
+        <f t="shared" si="13"/>
+        <v>122</v>
       </c>
       <c r="E27" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="11"/>
-        <v>291.60000000000002</v>
-      </c>
-      <c r="G27" s="8"/>
+        <f t="shared" si="12"/>
+        <v>296.46000000000004</v>
+      </c>
+      <c r="G27" s="3"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
+        <v>43874</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5918</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="13"/>
+        <v>285</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="12"/>
+        <v>1279.6500000000001</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" si="14"/>
+        <v>1571.25</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1589.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2805</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="12"/>
+        <v>291.60000000000002</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>43847</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="10">
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="10">
         <v>5633</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="10">
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="10">
         <v>2685</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="8">
-        <f>SUM(G2:G29)</f>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="8">
+        <f>SUM(G4:G31)</f>
         <v>11387.8</v>
       </c>
-      <c r="H30" s="8">
-        <f>SUM(H2:H29)</f>
+      <c r="H32" s="8">
+        <f>SUM(H4:H31)</f>
         <v>11448.279999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="13">
-        <f>SUM(H30,-G30)</f>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="13">
+        <f>SUM(H32,-G32)</f>
         <v>60.479999999999563</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/191ee.xlsx
+++ b/sputnik/personal/ee/191ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 01.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\26.08.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,31 +486,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44384</v>
+        <v>44445</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>7797</v>
+        <v>8075</v>
       </c>
       <c r="D2" s="3">
-        <f>SUM(C2,-C4)</f>
-        <v>153</v>
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
+        <v>125</v>
       </c>
       <c r="E2" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>720.63</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>620</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>840.48</v>
+        <v>812.96</v>
       </c>
       <c r="H2" s="8">
-        <v>840.48</v>
+        <v>812.96</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -519,49 +519,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>3579</v>
+        <v>3698</v>
       </c>
       <c r="D3" s="3">
-        <f>SUM(C3,-C5)</f>
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="E3" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" si="0"/>
-        <v>119.85</v>
+        <f t="shared" si="1"/>
+        <v>192.96</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44347</v>
+        <v>44419</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>7644</v>
+        <v>7950</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C6)</f>
-        <v>137</v>
+        <f t="shared" ref="D4:D11" si="2">SUM(C4,-C6)</f>
+        <v>153</v>
       </c>
       <c r="E4" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>645.27</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>758.88</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>795.72</v>
+        <v>884.84</v>
       </c>
       <c r="H4" s="8">
-        <v>795.72</v>
+        <v>884.84</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -570,49 +570,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>3532</v>
+        <v>3626</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C7)</f>
-        <v>59</v>
+        <f t="shared" si="2"/>
+        <v>47</v>
       </c>
       <c r="E5" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="1"/>
-        <v>150.44999999999999</v>
+        <f t="shared" si="3"/>
+        <v>125.96000000000001</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44334</v>
+        <v>44384</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>7507</v>
+        <v>7797</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C8)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>153</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
-        <v>0</v>
+        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
+        <v>720.63</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>0</v>
+        <v>840.48</v>
       </c>
       <c r="H6" s="8">
-        <v>175.76</v>
+        <v>840.48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -621,49 +621,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>3473</v>
+        <v>3579</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C9)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>47</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>119.85</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44308</v>
+        <v>44347</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>7507</v>
+        <v>7644</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="3">SUM(C8,-C10)</f>
-        <v>136</v>
+        <f t="shared" si="2"/>
+        <v>137</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
-        <v>640.55999999999995</v>
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>645.27</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>824.16</v>
+        <v>795.72</v>
       </c>
       <c r="H8" s="8">
-        <v>761.3</v>
+        <v>795.72</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -672,49 +672,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>3473</v>
+        <v>3532</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="3"/>
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>59</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="4"/>
-        <v>183.6</v>
+        <f t="shared" si="5"/>
+        <v>150.44999999999999</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44305</v>
+        <v>44334</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>7371</v>
+        <v>7507</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D13" si="5">SUM(C10,-C12)</f>
-        <v>142</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="6">D10*E10</f>
-        <v>668.82</v>
+        <v>0</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>811.62</v>
+        <v>0</v>
       </c>
       <c r="H10" s="8">
-        <v>773.66</v>
+        <v>175.76</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,49 +723,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>3401</v>
+        <v>3473</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="5"/>
-        <v>56</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="6"/>
-        <v>142.79999999999998</v>
+        <v>0</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44295</v>
+        <v>44308</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>7229</v>
+        <v>7507</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="5"/>
-        <v>109</v>
+        <f t="shared" ref="D12:D13" si="7">SUM(C12,-C14)</f>
+        <v>136</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
-        <v>513.39</v>
+        <f t="shared" ref="F12:F13" si="8">D12*E12</f>
+        <v>640.55999999999995</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>725.04</v>
+        <v>824.16</v>
       </c>
       <c r="H12" s="8">
-        <v>691.1</v>
+        <v>761.3</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -774,49 +774,49 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>3345</v>
+        <v>3473</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="5"/>
-        <v>83</v>
+        <f t="shared" si="7"/>
+        <v>72</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="7"/>
-        <v>211.64999999999998</v>
+        <f t="shared" si="8"/>
+        <v>183.6</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>44266</v>
+        <v>44305</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>7120</v>
+        <v>7371</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D21" si="8">SUM(C14,-C16)</f>
-        <v>146</v>
+        <f t="shared" ref="D14:D17" si="9">SUM(C14,-C16)</f>
+        <v>142</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
-        <v>687.66</v>
+        <f t="shared" ref="F14:F15" si="10">D14*E14</f>
+        <v>668.82</v>
       </c>
       <c r="G14" s="8">
         <f>SUM(F14,F15)</f>
-        <v>812.6099999999999</v>
+        <v>811.62</v>
       </c>
       <c r="H14" s="8">
-        <v>774.61</v>
+        <v>773.66</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -825,49 +825,49 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>3262</v>
+        <v>3401</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="8"/>
-        <v>49</v>
+        <f t="shared" si="9"/>
+        <v>56</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="9"/>
-        <v>124.94999999999999</v>
+        <f t="shared" si="10"/>
+        <v>142.79999999999998</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>6974</v>
+        <v>7229</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="8"/>
-        <v>123</v>
+        <f t="shared" si="9"/>
+        <v>109</v>
       </c>
       <c r="E16" s="3">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="10">D16*E16</f>
-        <v>579.33000000000004</v>
+        <f t="shared" ref="F16:F17" si="11">D16*E16</f>
+        <v>513.39</v>
       </c>
       <c r="G16" s="8">
         <f>SUM(F16,F17)</f>
-        <v>768.03</v>
+        <v>725.04</v>
       </c>
       <c r="H16" s="8">
-        <v>768.03</v>
+        <v>691.1</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -876,49 +876,49 @@
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>3213</v>
+        <v>3345</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="8"/>
-        <v>74</v>
+        <f t="shared" si="9"/>
+        <v>83</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="10"/>
-        <v>188.7</v>
+        <f t="shared" si="11"/>
+        <v>211.64999999999998</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>44236</v>
+        <v>44266</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>6851</v>
+        <v>7120</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="8"/>
-        <v>164</v>
+        <f t="shared" ref="D18:D25" si="12">SUM(C18,-C20)</f>
+        <v>146</v>
       </c>
       <c r="E18" s="3">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="11">D18*E18</f>
-        <v>772.43999999999994</v>
+        <f t="shared" ref="F18:F19" si="13">D18*E18</f>
+        <v>687.66</v>
       </c>
       <c r="G18" s="8">
         <f>SUM(F18,F19)</f>
-        <v>854.04</v>
+        <v>812.6099999999999</v>
       </c>
       <c r="H18" s="8">
-        <v>854.04</v>
+        <v>774.61</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -927,49 +927,49 @@
         <v>9</v>
       </c>
       <c r="C19" s="3">
-        <v>3139</v>
+        <v>3262</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="8"/>
-        <v>32</v>
+        <f t="shared" si="12"/>
+        <v>49</v>
       </c>
       <c r="E19" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="11"/>
-        <v>81.599999999999994</v>
+        <f t="shared" si="13"/>
+        <v>124.94999999999999</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>44068</v>
+      <c r="A20" s="12">
+        <v>44244</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="3">
-        <v>6687</v>
+        <v>6974</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="8"/>
-        <v>149</v>
+        <f t="shared" si="12"/>
+        <v>123</v>
       </c>
       <c r="E20" s="3">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" ref="F20:F29" si="12">D20*E20</f>
-        <v>701.79</v>
+        <f t="shared" ref="F20:F21" si="14">D20*E20</f>
+        <v>579.33000000000004</v>
       </c>
       <c r="G20" s="8">
         <f>SUM(F20,F21)</f>
-        <v>826.74</v>
+        <v>768.03</v>
       </c>
       <c r="H20" s="8">
-        <v>826.74</v>
+        <v>768.03</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -978,49 +978,49 @@
         <v>9</v>
       </c>
       <c r="C21" s="3">
-        <v>3107</v>
+        <v>3213</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="8"/>
-        <v>49</v>
+        <f t="shared" si="12"/>
+        <v>74</v>
       </c>
       <c r="E21" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="12"/>
-        <v>124.94999999999999</v>
+        <f t="shared" si="14"/>
+        <v>188.7</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>44005</v>
+      <c r="A22" s="12">
+        <v>44236</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="3">
-        <v>6538</v>
+        <v>6851</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" ref="D22:D29" si="13">SUM(C22,-C24)</f>
+        <f t="shared" si="12"/>
         <v>164</v>
       </c>
       <c r="E22" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="12"/>
-        <v>736.36</v>
+        <f t="shared" ref="F22:F23" si="15">D22*E22</f>
+        <v>772.43999999999994</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" ref="G22:G28" si="14">SUM(F22,F23)</f>
-        <v>891.88</v>
+        <f>SUM(F22,F23)</f>
+        <v>854.04</v>
       </c>
       <c r="H22" s="8">
-        <v>902.44</v>
+        <v>854.04</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1029,49 +1029,49 @@
         <v>9</v>
       </c>
       <c r="C23" s="3">
-        <v>3058</v>
+        <v>3139</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="13"/>
-        <v>64</v>
+        <f t="shared" si="12"/>
+        <v>32</v>
       </c>
       <c r="E23" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="12"/>
-        <v>155.52000000000001</v>
+        <f t="shared" si="15"/>
+        <v>81.599999999999994</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>43948</v>
+        <v>44068</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="3">
-        <v>6374</v>
+        <v>6687</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="13"/>
-        <v>179</v>
+        <f t="shared" si="12"/>
+        <v>149</v>
       </c>
       <c r="E24" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="12"/>
-        <v>803.71</v>
+        <f t="shared" ref="F24:F33" si="16">D24*E24</f>
+        <v>701.79</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="14"/>
-        <v>966.52</v>
+        <f>SUM(F24,F25)</f>
+        <v>826.74</v>
       </c>
       <c r="H24" s="8">
-        <v>978.16</v>
+        <v>826.74</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1080,49 +1080,49 @@
         <v>9</v>
       </c>
       <c r="C25" s="3">
-        <v>2994</v>
+        <v>3107</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="13"/>
-        <v>67</v>
+        <f t="shared" si="12"/>
+        <v>49</v>
       </c>
       <c r="E25" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="12"/>
-        <v>162.81</v>
+        <f t="shared" si="16"/>
+        <v>124.94999999999999</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>43901</v>
+        <v>44005</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="3">
-        <v>6195</v>
+        <v>6538</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="13"/>
-        <v>277</v>
+        <f t="shared" ref="D26:D33" si="17">SUM(C26,-C28)</f>
+        <v>164</v>
       </c>
       <c r="E26" s="3">
         <v>4.49</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="12"/>
-        <v>1243.73</v>
+        <f t="shared" si="16"/>
+        <v>736.36</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="14"/>
-        <v>1540.19</v>
+        <f t="shared" ref="G26:G32" si="18">SUM(F26,F27)</f>
+        <v>891.88</v>
       </c>
       <c r="H26" s="8">
-        <v>1557.47</v>
+        <v>902.44</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1131,49 +1131,49 @@
         <v>9</v>
       </c>
       <c r="C27" s="3">
-        <v>2927</v>
+        <v>3058</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="13"/>
-        <v>122</v>
+        <f t="shared" si="17"/>
+        <v>64</v>
       </c>
       <c r="E27" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="12"/>
-        <v>296.46000000000004</v>
-      </c>
-      <c r="G27" s="3"/>
+        <f t="shared" si="16"/>
+        <v>155.52000000000001</v>
+      </c>
+      <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>43874</v>
+        <v>43948</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="3">
-        <v>5918</v>
+        <v>6374</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="13"/>
-        <v>285</v>
+        <f t="shared" si="17"/>
+        <v>179</v>
       </c>
       <c r="E28" s="3">
         <v>4.49</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="12"/>
-        <v>1279.6500000000001</v>
+        <f t="shared" si="16"/>
+        <v>803.71</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="14"/>
-        <v>1571.25</v>
+        <f t="shared" si="18"/>
+        <v>966.52</v>
       </c>
       <c r="H28" s="8">
-        <v>1589.25</v>
+        <v>978.16</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1182,90 +1182,192 @@
         <v>9</v>
       </c>
       <c r="C29" s="3">
-        <v>2805</v>
+        <v>2994</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="13"/>
-        <v>120</v>
+        <f t="shared" si="17"/>
+        <v>67</v>
       </c>
       <c r="E29" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="12"/>
-        <v>291.60000000000002</v>
+        <f t="shared" si="16"/>
+        <v>162.81</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
+        <v>43901</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6195</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="17"/>
+        <v>277</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="16"/>
+        <v>1243.73</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="18"/>
+        <v>1540.19</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1557.47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2927</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="17"/>
+        <v>122</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="16"/>
+        <v>296.46000000000004</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>43874</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5918</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="17"/>
+        <v>285</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="16"/>
+        <v>1279.6500000000001</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" si="18"/>
+        <v>1571.25</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1589.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2805</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="17"/>
+        <v>120</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="16"/>
+        <v>291.60000000000002</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>43847</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="10">
+      <c r="B34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="10">
         <v>5633</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="10">
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="10">
         <v>2685</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="8">
-        <f>SUM(G4:G31)</f>
-        <v>11387.8</v>
-      </c>
-      <c r="H32" s="8">
-        <f>SUM(H4:H31)</f>
-        <v>11448.279999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="13">
-        <f>SUM(H32,-G32)</f>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="8">
+        <f>SUM(G2:G35)</f>
+        <v>13926.08</v>
+      </c>
+      <c r="H36" s="8">
+        <f>SUM(H2:H35)</f>
+        <v>13986.56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="13">
+        <f>SUM(H36,-G36)</f>
         <v>60.479999999999563</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/191ee.xlsx
+++ b/sputnik/personal/ee/191ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\26.08.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 30.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,31 +486,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44445</v>
+        <v>44480</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>8075</v>
+        <v>8190</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E2" s="3">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>620</v>
+        <v>570.4</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>812.96</v>
+        <v>792.84</v>
       </c>
       <c r="H2" s="8">
-        <v>812.96</v>
+        <v>792.84</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -519,49 +519,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>3698</v>
+        <v>3781</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E3" s="3">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>192.96</v>
+        <v>222.44000000000003</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44419</v>
+        <v>44445</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>7950</v>
+        <v>8075</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="2">SUM(C4,-C6)</f>
-        <v>153</v>
+        <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
+        <v>125</v>
       </c>
       <c r="E4" s="3">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>758.88</v>
+        <v>620</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>884.84</v>
+        <v>812.96</v>
       </c>
       <c r="H4" s="8">
-        <v>884.84</v>
+        <v>812.96</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -570,49 +570,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>3626</v>
+        <v>3698</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E5" s="3">
         <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>125.96000000000001</v>
+        <v>192.96</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44384</v>
+        <v>44419</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>7797</v>
+        <v>7950</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D6:D13" si="4">SUM(C6,-C8)</f>
         <v>153</v>
       </c>
       <c r="E6" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>720.63</v>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
+        <v>758.88</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>840.48</v>
+        <v>884.84</v>
       </c>
       <c r="H6" s="8">
-        <v>840.48</v>
+        <v>884.84</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -621,49 +621,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>3579</v>
+        <v>3626</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="E7" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="4"/>
-        <v>119.85</v>
+        <f t="shared" si="5"/>
+        <v>125.96000000000001</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44347</v>
+        <v>44384</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>7644</v>
+        <v>7797</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="2"/>
-        <v>137</v>
+        <f t="shared" si="4"/>
+        <v>153</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
-        <v>645.27</v>
+        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
+        <v>720.63</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>795.72</v>
+        <v>840.48</v>
       </c>
       <c r="H8" s="8">
-        <v>795.72</v>
+        <v>840.48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -672,49 +672,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>3532</v>
+        <v>3579</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="2"/>
-        <v>59</v>
+        <f t="shared" si="4"/>
+        <v>47</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="5"/>
-        <v>150.44999999999999</v>
+        <f t="shared" si="6"/>
+        <v>119.85</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44334</v>
+        <v>44347</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>7507</v>
+        <v>7644</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>137</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="6">D10*E10</f>
-        <v>0</v>
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>645.27</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>0</v>
+        <v>795.72</v>
       </c>
       <c r="H10" s="8">
-        <v>175.76</v>
+        <v>795.72</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,25 +723,25 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>3473</v>
+        <v>3532</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>59</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>150.44999999999999</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44308</v>
+        <v>44334</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
@@ -750,22 +750,22 @@
         <v>7507</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="7">SUM(C12,-C14)</f>
-        <v>136</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:F13" si="8">D12*E12</f>
-        <v>640.55999999999995</v>
+        <v>0</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>824.16</v>
+        <v>0</v>
       </c>
       <c r="H12" s="8">
-        <v>761.3</v>
+        <v>175.76</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -777,46 +777,46 @@
         <v>3473</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="7"/>
-        <v>72</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="8"/>
-        <v>183.6</v>
+        <v>0</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>44305</v>
+        <v>44308</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>7371</v>
+        <v>7507</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D17" si="9">SUM(C14,-C16)</f>
-        <v>142</v>
+        <f t="shared" ref="D14:D15" si="9">SUM(C14,-C16)</f>
+        <v>136</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14:F15" si="10">D14*E14</f>
-        <v>668.82</v>
+        <v>640.55999999999995</v>
       </c>
       <c r="G14" s="8">
         <f>SUM(F14,F15)</f>
-        <v>811.62</v>
+        <v>824.16</v>
       </c>
       <c r="H14" s="8">
-        <v>773.66</v>
+        <v>761.3</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -825,49 +825,49 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>3401</v>
+        <v>3473</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="9"/>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="10"/>
-        <v>142.79999999999998</v>
+        <v>183.6</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>44295</v>
+        <v>44305</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>7229</v>
+        <v>7371</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="9"/>
-        <v>109</v>
+        <f t="shared" ref="D16:D19" si="11">SUM(C16,-C18)</f>
+        <v>142</v>
       </c>
       <c r="E16" s="3">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="11">D16*E16</f>
-        <v>513.39</v>
+        <f t="shared" ref="F16:F17" si="12">D16*E16</f>
+        <v>668.82</v>
       </c>
       <c r="G16" s="8">
         <f>SUM(F16,F17)</f>
-        <v>725.04</v>
+        <v>811.62</v>
       </c>
       <c r="H16" s="8">
-        <v>691.1</v>
+        <v>773.66</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -876,49 +876,49 @@
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>3345</v>
+        <v>3401</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="9"/>
-        <v>83</v>
+        <f t="shared" si="11"/>
+        <v>56</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="11"/>
-        <v>211.64999999999998</v>
+        <f t="shared" si="12"/>
+        <v>142.79999999999998</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>44266</v>
+        <v>44295</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>7120</v>
+        <v>7229</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" ref="D18:D25" si="12">SUM(C18,-C20)</f>
-        <v>146</v>
+        <f t="shared" si="11"/>
+        <v>109</v>
       </c>
       <c r="E18" s="3">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18:F19" si="13">D18*E18</f>
-        <v>687.66</v>
+        <v>513.39</v>
       </c>
       <c r="G18" s="8">
         <f>SUM(F18,F19)</f>
-        <v>812.6099999999999</v>
+        <v>725.04</v>
       </c>
       <c r="H18" s="8">
-        <v>774.61</v>
+        <v>691.1</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -927,49 +927,49 @@
         <v>9</v>
       </c>
       <c r="C19" s="3">
-        <v>3262</v>
+        <v>3345</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="12"/>
-        <v>49</v>
+        <f t="shared" si="11"/>
+        <v>83</v>
       </c>
       <c r="E19" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="13"/>
-        <v>124.94999999999999</v>
+        <v>211.64999999999998</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>44244</v>
+        <v>44266</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="3">
-        <v>6974</v>
+        <v>7120</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="12"/>
-        <v>123</v>
+        <f t="shared" ref="D20:D27" si="14">SUM(C20,-C22)</f>
+        <v>146</v>
       </c>
       <c r="E20" s="3">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" si="14">D20*E20</f>
-        <v>579.33000000000004</v>
+        <f t="shared" ref="F20:F21" si="15">D20*E20</f>
+        <v>687.66</v>
       </c>
       <c r="G20" s="8">
         <f>SUM(F20,F21)</f>
-        <v>768.03</v>
+        <v>812.6099999999999</v>
       </c>
       <c r="H20" s="8">
-        <v>768.03</v>
+        <v>774.61</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -978,49 +978,49 @@
         <v>9</v>
       </c>
       <c r="C21" s="3">
-        <v>3213</v>
+        <v>3262</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="12"/>
-        <v>74</v>
+        <f t="shared" si="14"/>
+        <v>49</v>
       </c>
       <c r="E21" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="14"/>
-        <v>188.7</v>
+        <f t="shared" si="15"/>
+        <v>124.94999999999999</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>44236</v>
+        <v>44244</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="3">
-        <v>6851</v>
+        <v>6974</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="12"/>
-        <v>164</v>
+        <f t="shared" si="14"/>
+        <v>123</v>
       </c>
       <c r="E22" s="3">
         <v>4.71</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" ref="F22:F23" si="15">D22*E22</f>
-        <v>772.43999999999994</v>
+        <f t="shared" ref="F22:F23" si="16">D22*E22</f>
+        <v>579.33000000000004</v>
       </c>
       <c r="G22" s="8">
         <f>SUM(F22,F23)</f>
-        <v>854.04</v>
+        <v>768.03</v>
       </c>
       <c r="H22" s="8">
-        <v>854.04</v>
+        <v>768.03</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1029,49 +1029,49 @@
         <v>9</v>
       </c>
       <c r="C23" s="3">
-        <v>3139</v>
+        <v>3213</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="14"/>
+        <v>74</v>
       </c>
       <c r="E23" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="15"/>
-        <v>81.599999999999994</v>
+        <f t="shared" si="16"/>
+        <v>188.7</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>44068</v>
+      <c r="A24" s="12">
+        <v>44236</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="3">
-        <v>6687</v>
+        <v>6851</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="12"/>
-        <v>149</v>
+        <f t="shared" si="14"/>
+        <v>164</v>
       </c>
       <c r="E24" s="3">
         <v>4.71</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" ref="F24:F33" si="16">D24*E24</f>
-        <v>701.79</v>
+        <f t="shared" ref="F24:F25" si="17">D24*E24</f>
+        <v>772.43999999999994</v>
       </c>
       <c r="G24" s="8">
         <f>SUM(F24,F25)</f>
-        <v>826.74</v>
+        <v>854.04</v>
       </c>
       <c r="H24" s="8">
-        <v>826.74</v>
+        <v>854.04</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1080,49 +1080,49 @@
         <v>9</v>
       </c>
       <c r="C25" s="3">
-        <v>3107</v>
+        <v>3139</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="12"/>
-        <v>49</v>
+        <f t="shared" si="14"/>
+        <v>32</v>
       </c>
       <c r="E25" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="16"/>
-        <v>124.94999999999999</v>
+        <f t="shared" si="17"/>
+        <v>81.599999999999994</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>44005</v>
+        <v>44068</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="3">
-        <v>6538</v>
+        <v>6687</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" ref="D26:D33" si="17">SUM(C26,-C28)</f>
-        <v>164</v>
+        <f t="shared" si="14"/>
+        <v>149</v>
       </c>
       <c r="E26" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="16"/>
-        <v>736.36</v>
+        <f t="shared" ref="F26:F35" si="18">D26*E26</f>
+        <v>701.79</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" ref="G26:G32" si="18">SUM(F26,F27)</f>
-        <v>891.88</v>
+        <f>SUM(F26,F27)</f>
+        <v>826.74</v>
       </c>
       <c r="H26" s="8">
-        <v>902.44</v>
+        <v>826.74</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1131,49 +1131,49 @@
         <v>9</v>
       </c>
       <c r="C27" s="3">
-        <v>3058</v>
+        <v>3107</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="17"/>
-        <v>64</v>
+        <f t="shared" si="14"/>
+        <v>49</v>
       </c>
       <c r="E27" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="16"/>
-        <v>155.52000000000001</v>
+        <f t="shared" si="18"/>
+        <v>124.94999999999999</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>43948</v>
+        <v>44005</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="3">
-        <v>6374</v>
+        <v>6538</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="17"/>
-        <v>179</v>
+        <f t="shared" ref="D28:D35" si="19">SUM(C28,-C30)</f>
+        <v>164</v>
       </c>
       <c r="E28" s="3">
         <v>4.49</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="16"/>
-        <v>803.71</v>
+        <f t="shared" si="18"/>
+        <v>736.36</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="18"/>
-        <v>966.52</v>
+        <f t="shared" ref="G28:G34" si="20">SUM(F28,F29)</f>
+        <v>891.88</v>
       </c>
       <c r="H28" s="8">
-        <v>978.16</v>
+        <v>902.44</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1182,49 +1182,49 @@
         <v>9</v>
       </c>
       <c r="C29" s="3">
-        <v>2994</v>
+        <v>3058</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="17"/>
-        <v>67</v>
+        <f t="shared" si="19"/>
+        <v>64</v>
       </c>
       <c r="E29" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="16"/>
-        <v>162.81</v>
+        <f t="shared" si="18"/>
+        <v>155.52000000000001</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>43901</v>
+        <v>43948</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="3">
-        <v>6195</v>
+        <v>6374</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="17"/>
-        <v>277</v>
+        <f t="shared" si="19"/>
+        <v>179</v>
       </c>
       <c r="E30" s="3">
         <v>4.49</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="16"/>
-        <v>1243.73</v>
+        <f t="shared" si="18"/>
+        <v>803.71</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="18"/>
-        <v>1540.19</v>
+        <f t="shared" si="20"/>
+        <v>966.52</v>
       </c>
       <c r="H30" s="8">
-        <v>1557.47</v>
+        <v>978.16</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1233,49 +1233,49 @@
         <v>9</v>
       </c>
       <c r="C31" s="3">
-        <v>2927</v>
+        <v>2994</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="17"/>
-        <v>122</v>
+        <f t="shared" si="19"/>
+        <v>67</v>
       </c>
       <c r="E31" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="16"/>
-        <v>296.46000000000004</v>
-      </c>
-      <c r="G31" s="3"/>
+        <f t="shared" si="18"/>
+        <v>162.81</v>
+      </c>
+      <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>43874</v>
+        <v>43901</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="3">
-        <v>5918</v>
+        <v>6195</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="17"/>
-        <v>285</v>
+        <f t="shared" si="19"/>
+        <v>277</v>
       </c>
       <c r="E32" s="3">
         <v>4.49</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="16"/>
-        <v>1279.6500000000001</v>
+        <f t="shared" si="18"/>
+        <v>1243.73</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="18"/>
-        <v>1571.25</v>
+        <f t="shared" si="20"/>
+        <v>1540.19</v>
       </c>
       <c r="H32" s="8">
-        <v>1589.25</v>
+        <v>1557.47</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1284,90 +1284,141 @@
         <v>9</v>
       </c>
       <c r="C33" s="3">
-        <v>2805</v>
+        <v>2927</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="17"/>
-        <v>120</v>
+        <f t="shared" si="19"/>
+        <v>122</v>
       </c>
       <c r="E33" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="16"/>
-        <v>291.60000000000002</v>
-      </c>
-      <c r="G33" s="8"/>
+        <f t="shared" si="18"/>
+        <v>296.46000000000004</v>
+      </c>
+      <c r="G33" s="3"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
+        <v>43874</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3">
+        <v>5918</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="19"/>
+        <v>285</v>
+      </c>
+      <c r="E34" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="18"/>
+        <v>1279.6500000000001</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="20"/>
+        <v>1571.25</v>
+      </c>
+      <c r="H34" s="8">
+        <v>1589.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2805</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="19"/>
+        <v>120</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="18"/>
+        <v>291.60000000000002</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>43847</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="10">
+      <c r="B36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="10">
         <v>5633</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="10">
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="10">
         <v>2685</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="8">
-        <f>SUM(G2:G35)</f>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="8">
+        <f>SUM(G4:G37)</f>
         <v>13926.08</v>
       </c>
-      <c r="H36" s="8">
-        <f>SUM(H2:H35)</f>
+      <c r="H38" s="8">
+        <f>SUM(H4:H37)</f>
         <v>13986.56</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="13">
-        <f>SUM(H36,-G36)</f>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="13">
+        <f>SUM(H38,-G38)</f>
         <v>60.479999999999563</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/191ee.xlsx
+++ b/sputnik/personal/ee/191ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 30.09.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 15.10.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.10.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,31 +486,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44480</v>
+        <v>44487</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>8190</v>
+        <v>8310</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E2" s="3">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>570.4</v>
+        <v>595.20000000000005</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>792.84</v>
+        <v>705.08</v>
       </c>
       <c r="H2" s="8">
-        <v>792.84</v>
+        <v>705.08</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -519,49 +519,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>3781</v>
+        <v>3822</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>222.44000000000003</v>
+        <v>109.88000000000001</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44445</v>
+        <v>44480</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>8075</v>
+        <v>8190</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E4" s="3">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>620</v>
+        <v>570.4</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>812.96</v>
+        <v>792.84</v>
       </c>
       <c r="H4" s="8">
-        <v>812.96</v>
+        <v>792.84</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -570,49 +570,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>3698</v>
+        <v>3781</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E5" s="3">
         <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>192.96</v>
+        <v>222.44000000000003</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44419</v>
+        <v>44445</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>7950</v>
+        <v>8075</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D13" si="4">SUM(C6,-C8)</f>
-        <v>153</v>
+        <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
+        <v>125</v>
       </c>
       <c r="E6" s="3">
         <v>4.96</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>758.88</v>
+        <v>620</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>884.84</v>
+        <v>812.96</v>
       </c>
       <c r="H6" s="8">
-        <v>884.84</v>
+        <v>812.96</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -621,49 +621,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>3626</v>
+        <v>3698</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E7" s="3">
         <v>2.68</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="5"/>
-        <v>125.96000000000001</v>
+        <v>192.96</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44384</v>
+        <v>44419</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>7797</v>
+        <v>7950</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D8:D15" si="6">SUM(C8,-C10)</f>
         <v>153</v>
       </c>
       <c r="E8" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>720.63</v>
+        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
+        <v>758.88</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>840.48</v>
+        <v>884.84</v>
       </c>
       <c r="H8" s="8">
-        <v>840.48</v>
+        <v>884.84</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -672,49 +672,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>3579</v>
+        <v>3626</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="E9" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="6"/>
-        <v>119.85</v>
+        <f t="shared" si="7"/>
+        <v>125.96000000000001</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44347</v>
+        <v>44384</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>7644</v>
+        <v>7797</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="4"/>
-        <v>137</v>
+        <f t="shared" si="6"/>
+        <v>153</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
-        <v>645.27</v>
+        <f t="shared" ref="F10:F11" si="8">D10*E10</f>
+        <v>720.63</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>795.72</v>
+        <v>840.48</v>
       </c>
       <c r="H10" s="8">
-        <v>795.72</v>
+        <v>840.48</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,49 +723,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>3532</v>
+        <v>3579</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="4"/>
-        <v>59</v>
+        <f t="shared" si="6"/>
+        <v>47</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="7"/>
-        <v>150.44999999999999</v>
+        <f t="shared" si="8"/>
+        <v>119.85</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44334</v>
+        <v>44347</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>7507</v>
+        <v>7644</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>137</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F12:F13" si="8">D12*E12</f>
-        <v>0</v>
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>645.27</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>0</v>
+        <v>795.72</v>
       </c>
       <c r="H12" s="8">
-        <v>175.76</v>
+        <v>795.72</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -774,25 +774,25 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>3473</v>
+        <v>3532</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>59</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>150.44999999999999</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>44308</v>
+        <v>44334</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
@@ -801,22 +801,22 @@
         <v>7507</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="9">SUM(C14,-C16)</f>
-        <v>136</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14:F15" si="10">D14*E14</f>
-        <v>640.55999999999995</v>
+        <v>0</v>
       </c>
       <c r="G14" s="8">
         <f>SUM(F14,F15)</f>
-        <v>824.16</v>
+        <v>0</v>
       </c>
       <c r="H14" s="8">
-        <v>761.3</v>
+        <v>175.76</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -828,46 +828,46 @@
         <v>3473</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="9"/>
-        <v>72</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="10"/>
-        <v>183.6</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>44305</v>
+        <v>44308</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>7371</v>
+        <v>7507</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ref="D16:D19" si="11">SUM(C16,-C18)</f>
-        <v>142</v>
+        <f t="shared" ref="D16:D17" si="11">SUM(C16,-C18)</f>
+        <v>136</v>
       </c>
       <c r="E16" s="3">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16:F17" si="12">D16*E16</f>
-        <v>668.82</v>
+        <v>640.55999999999995</v>
       </c>
       <c r="G16" s="8">
         <f>SUM(F16,F17)</f>
-        <v>811.62</v>
+        <v>824.16</v>
       </c>
       <c r="H16" s="8">
-        <v>773.66</v>
+        <v>761.3</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -876,49 +876,49 @@
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>3401</v>
+        <v>3473</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="11"/>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="12"/>
-        <v>142.79999999999998</v>
+        <v>183.6</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>44295</v>
+        <v>44305</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>7229</v>
+        <v>7371</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="11"/>
-        <v>109</v>
+        <f t="shared" ref="D18:D21" si="13">SUM(C18,-C20)</f>
+        <v>142</v>
       </c>
       <c r="E18" s="3">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="13">D18*E18</f>
-        <v>513.39</v>
+        <f t="shared" ref="F18:F19" si="14">D18*E18</f>
+        <v>668.82</v>
       </c>
       <c r="G18" s="8">
         <f>SUM(F18,F19)</f>
-        <v>725.04</v>
+        <v>811.62</v>
       </c>
       <c r="H18" s="8">
-        <v>691.1</v>
+        <v>773.66</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -927,49 +927,49 @@
         <v>9</v>
       </c>
       <c r="C19" s="3">
-        <v>3345</v>
+        <v>3401</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="11"/>
-        <v>83</v>
+        <f t="shared" si="13"/>
+        <v>56</v>
       </c>
       <c r="E19" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="13"/>
-        <v>211.64999999999998</v>
+        <f t="shared" si="14"/>
+        <v>142.79999999999998</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>44266</v>
+        <v>44295</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="3">
-        <v>7120</v>
+        <v>7229</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" ref="D20:D27" si="14">SUM(C20,-C22)</f>
-        <v>146</v>
+        <f t="shared" si="13"/>
+        <v>109</v>
       </c>
       <c r="E20" s="3">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20:F21" si="15">D20*E20</f>
-        <v>687.66</v>
+        <v>513.39</v>
       </c>
       <c r="G20" s="8">
         <f>SUM(F20,F21)</f>
-        <v>812.6099999999999</v>
+        <v>725.04</v>
       </c>
       <c r="H20" s="8">
-        <v>774.61</v>
+        <v>691.1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -978,49 +978,49 @@
         <v>9</v>
       </c>
       <c r="C21" s="3">
-        <v>3262</v>
+        <v>3345</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="14"/>
-        <v>49</v>
+        <f t="shared" si="13"/>
+        <v>83</v>
       </c>
       <c r="E21" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="15"/>
-        <v>124.94999999999999</v>
+        <v>211.64999999999998</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>44244</v>
+        <v>44266</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="3">
-        <v>6974</v>
+        <v>7120</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="14"/>
-        <v>123</v>
+        <f t="shared" ref="D22:D29" si="16">SUM(C22,-C24)</f>
+        <v>146</v>
       </c>
       <c r="E22" s="3">
         <v>4.71</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" ref="F22:F23" si="16">D22*E22</f>
-        <v>579.33000000000004</v>
+        <f t="shared" ref="F22:F23" si="17">D22*E22</f>
+        <v>687.66</v>
       </c>
       <c r="G22" s="8">
         <f>SUM(F22,F23)</f>
-        <v>768.03</v>
+        <v>812.6099999999999</v>
       </c>
       <c r="H22" s="8">
-        <v>768.03</v>
+        <v>774.61</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1029,49 +1029,49 @@
         <v>9</v>
       </c>
       <c r="C23" s="3">
-        <v>3213</v>
+        <v>3262</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="14"/>
-        <v>74</v>
+        <f t="shared" si="16"/>
+        <v>49</v>
       </c>
       <c r="E23" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="16"/>
-        <v>188.7</v>
+        <f t="shared" si="17"/>
+        <v>124.94999999999999</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
-        <v>44236</v>
+        <v>44244</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="3">
-        <v>6851</v>
+        <v>6974</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="14"/>
-        <v>164</v>
+        <f t="shared" si="16"/>
+        <v>123</v>
       </c>
       <c r="E24" s="3">
         <v>4.71</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" ref="F24:F25" si="17">D24*E24</f>
-        <v>772.43999999999994</v>
+        <f t="shared" ref="F24:F25" si="18">D24*E24</f>
+        <v>579.33000000000004</v>
       </c>
       <c r="G24" s="8">
         <f>SUM(F24,F25)</f>
-        <v>854.04</v>
+        <v>768.03</v>
       </c>
       <c r="H24" s="8">
-        <v>854.04</v>
+        <v>768.03</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1080,49 +1080,49 @@
         <v>9</v>
       </c>
       <c r="C25" s="3">
-        <v>3139</v>
+        <v>3213</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="14"/>
-        <v>32</v>
+        <f t="shared" si="16"/>
+        <v>74</v>
       </c>
       <c r="E25" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="17"/>
-        <v>81.599999999999994</v>
+        <f t="shared" si="18"/>
+        <v>188.7</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>44068</v>
+      <c r="A26" s="12">
+        <v>44236</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="3">
-        <v>6687</v>
+        <v>6851</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="14"/>
-        <v>149</v>
+        <f t="shared" si="16"/>
+        <v>164</v>
       </c>
       <c r="E26" s="3">
         <v>4.71</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" ref="F26:F35" si="18">D26*E26</f>
-        <v>701.79</v>
+        <f t="shared" ref="F26:F27" si="19">D26*E26</f>
+        <v>772.43999999999994</v>
       </c>
       <c r="G26" s="8">
         <f>SUM(F26,F27)</f>
-        <v>826.74</v>
+        <v>854.04</v>
       </c>
       <c r="H26" s="8">
-        <v>826.74</v>
+        <v>854.04</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1131,49 +1131,49 @@
         <v>9</v>
       </c>
       <c r="C27" s="3">
-        <v>3107</v>
+        <v>3139</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="14"/>
-        <v>49</v>
+        <f t="shared" si="16"/>
+        <v>32</v>
       </c>
       <c r="E27" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="18"/>
-        <v>124.94999999999999</v>
+        <f t="shared" si="19"/>
+        <v>81.599999999999994</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>44005</v>
+        <v>44068</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="3">
-        <v>6538</v>
+        <v>6687</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" ref="D28:D35" si="19">SUM(C28,-C30)</f>
-        <v>164</v>
+        <f t="shared" si="16"/>
+        <v>149</v>
       </c>
       <c r="E28" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="18"/>
-        <v>736.36</v>
+        <f t="shared" ref="F28:F37" si="20">D28*E28</f>
+        <v>701.79</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" ref="G28:G34" si="20">SUM(F28,F29)</f>
-        <v>891.88</v>
+        <f>SUM(F28,F29)</f>
+        <v>826.74</v>
       </c>
       <c r="H28" s="8">
-        <v>902.44</v>
+        <v>826.74</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1182,49 +1182,49 @@
         <v>9</v>
       </c>
       <c r="C29" s="3">
-        <v>3058</v>
+        <v>3107</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="19"/>
-        <v>64</v>
+        <f t="shared" si="16"/>
+        <v>49</v>
       </c>
       <c r="E29" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="18"/>
-        <v>155.52000000000001</v>
+        <f t="shared" si="20"/>
+        <v>124.94999999999999</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>43948</v>
+        <v>44005</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="3">
-        <v>6374</v>
+        <v>6538</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="19"/>
-        <v>179</v>
+        <f t="shared" ref="D30:D37" si="21">SUM(C30,-C32)</f>
+        <v>164</v>
       </c>
       <c r="E30" s="3">
         <v>4.49</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="18"/>
-        <v>803.71</v>
+        <f t="shared" si="20"/>
+        <v>736.36</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="20"/>
-        <v>966.52</v>
+        <f t="shared" ref="G30:G36" si="22">SUM(F30,F31)</f>
+        <v>891.88</v>
       </c>
       <c r="H30" s="8">
-        <v>978.16</v>
+        <v>902.44</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1233,49 +1233,49 @@
         <v>9</v>
       </c>
       <c r="C31" s="3">
-        <v>2994</v>
+        <v>3058</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="19"/>
-        <v>67</v>
+        <f t="shared" si="21"/>
+        <v>64</v>
       </c>
       <c r="E31" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="18"/>
-        <v>162.81</v>
+        <f t="shared" si="20"/>
+        <v>155.52000000000001</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>43901</v>
+        <v>43948</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="3">
-        <v>6195</v>
+        <v>6374</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="19"/>
-        <v>277</v>
+        <f t="shared" si="21"/>
+        <v>179</v>
       </c>
       <c r="E32" s="3">
         <v>4.49</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="18"/>
-        <v>1243.73</v>
+        <f t="shared" si="20"/>
+        <v>803.71</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="20"/>
-        <v>1540.19</v>
+        <f t="shared" si="22"/>
+        <v>966.52</v>
       </c>
       <c r="H32" s="8">
-        <v>1557.47</v>
+        <v>978.16</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1284,49 +1284,49 @@
         <v>9</v>
       </c>
       <c r="C33" s="3">
-        <v>2927</v>
+        <v>2994</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="19"/>
-        <v>122</v>
+        <f t="shared" si="21"/>
+        <v>67</v>
       </c>
       <c r="E33" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="18"/>
-        <v>296.46000000000004</v>
-      </c>
-      <c r="G33" s="3"/>
+        <f t="shared" si="20"/>
+        <v>162.81</v>
+      </c>
+      <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>43874</v>
+        <v>43901</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="3">
-        <v>5918</v>
+        <v>6195</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="19"/>
-        <v>285</v>
+        <f t="shared" si="21"/>
+        <v>277</v>
       </c>
       <c r="E34" s="3">
         <v>4.49</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="18"/>
-        <v>1279.6500000000001</v>
+        <f t="shared" si="20"/>
+        <v>1243.73</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" si="20"/>
-        <v>1571.25</v>
+        <f t="shared" si="22"/>
+        <v>1540.19</v>
       </c>
       <c r="H34" s="8">
-        <v>1589.25</v>
+        <v>1557.47</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1335,90 +1335,141 @@
         <v>9</v>
       </c>
       <c r="C35" s="3">
-        <v>2805</v>
+        <v>2927</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="19"/>
-        <v>120</v>
+        <f t="shared" si="21"/>
+        <v>122</v>
       </c>
       <c r="E35" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="18"/>
-        <v>291.60000000000002</v>
-      </c>
-      <c r="G35" s="8"/>
+        <f t="shared" si="20"/>
+        <v>296.46000000000004</v>
+      </c>
+      <c r="G35" s="3"/>
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
+        <v>43874</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5918</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="21"/>
+        <v>285</v>
+      </c>
+      <c r="E36" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="20"/>
+        <v>1279.6500000000001</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" si="22"/>
+        <v>1571.25</v>
+      </c>
+      <c r="H36" s="8">
+        <v>1589.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2805</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="21"/>
+        <v>120</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="20"/>
+        <v>291.60000000000002</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>43847</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="10">
+      <c r="B38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="10">
         <v>5633</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="10">
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="10">
         <v>2685</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="8">
-        <f>SUM(G4:G37)</f>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="8">
+        <f>SUM(G6:G39)</f>
         <v>13926.08</v>
       </c>
-      <c r="H38" s="8">
-        <f>SUM(H4:H37)</f>
+      <c r="H40" s="8">
+        <f>SUM(H6:H39)</f>
         <v>13986.56</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="13">
-        <f>SUM(H38,-G38)</f>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="13">
+        <f>SUM(H40,-G40)</f>
         <v>60.479999999999563</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/191ee.xlsx
+++ b/sputnik/personal/ee/191ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 15.10.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.10.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 31.10.2021\30.11.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 30.11.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,31 +486,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44487</v>
+        <v>44544</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>8310</v>
+        <v>8465</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="E2" s="3">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>595.20000000000005</v>
+        <v>768.8</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>705.08</v>
+        <v>999.28</v>
       </c>
       <c r="H2" s="8">
-        <v>705.08</v>
+        <v>999.28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -519,49 +519,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>3822</v>
+        <v>3908</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="E3" s="3">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>109.88000000000001</v>
+        <v>230.48000000000002</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44480</v>
+        <v>44487</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>8190</v>
+        <v>8310</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E4" s="3">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>570.4</v>
+        <v>595.20000000000005</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>792.84</v>
+        <v>705.08</v>
       </c>
       <c r="H4" s="8">
-        <v>792.84</v>
+        <v>705.08</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -570,49 +570,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>3781</v>
+        <v>3822</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3">
         <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>222.44000000000003</v>
+        <v>109.88000000000001</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44445</v>
+        <v>44480</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>8075</v>
+        <v>8190</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E6" s="3">
         <v>4.96</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>620</v>
+        <v>570.4</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>812.96</v>
+        <v>792.84</v>
       </c>
       <c r="H6" s="8">
-        <v>812.96</v>
+        <v>792.84</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -621,49 +621,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>3698</v>
+        <v>3781</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E7" s="3">
         <v>2.68</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="5"/>
-        <v>192.96</v>
+        <v>222.44000000000003</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44419</v>
+        <v>44445</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>7950</v>
+        <v>8075</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D15" si="6">SUM(C8,-C10)</f>
-        <v>153</v>
+        <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
+        <v>125</v>
       </c>
       <c r="E8" s="3">
         <v>4.96</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="7">D8*E8</f>
-        <v>758.88</v>
+        <v>620</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>884.84</v>
+        <v>812.96</v>
       </c>
       <c r="H8" s="8">
-        <v>884.84</v>
+        <v>812.96</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -672,49 +672,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>3626</v>
+        <v>3698</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="6"/>
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E9" s="3">
         <v>2.68</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="7"/>
-        <v>125.96000000000001</v>
+        <v>192.96</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44384</v>
+        <v>44419</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>7797</v>
+        <v>7950</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D10:D17" si="8">SUM(C10,-C12)</f>
         <v>153</v>
       </c>
       <c r="E10" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="8">D10*E10</f>
-        <v>720.63</v>
+        <f t="shared" ref="F10:F11" si="9">D10*E10</f>
+        <v>758.88</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>840.48</v>
+        <v>884.84</v>
       </c>
       <c r="H10" s="8">
-        <v>840.48</v>
+        <v>884.84</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,49 +723,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>3579</v>
+        <v>3626</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="E11" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="8"/>
-        <v>119.85</v>
+        <f t="shared" si="9"/>
+        <v>125.96000000000001</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44347</v>
+        <v>44384</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>7644</v>
+        <v>7797</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="6"/>
-        <v>137</v>
+        <f t="shared" si="8"/>
+        <v>153</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
-        <v>645.27</v>
+        <f t="shared" ref="F12:F13" si="10">D12*E12</f>
+        <v>720.63</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>795.72</v>
+        <v>840.48</v>
       </c>
       <c r="H12" s="8">
-        <v>795.72</v>
+        <v>840.48</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -774,49 +774,49 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>3532</v>
+        <v>3579</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="6"/>
-        <v>59</v>
+        <f t="shared" si="8"/>
+        <v>47</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="9"/>
-        <v>150.44999999999999</v>
+        <f t="shared" si="10"/>
+        <v>119.85</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>44334</v>
+        <v>44347</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>7507</v>
+        <v>7644</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>137</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" si="10">D14*E14</f>
-        <v>0</v>
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>645.27</v>
       </c>
       <c r="G14" s="8">
         <f>SUM(F14,F15)</f>
-        <v>0</v>
+        <v>795.72</v>
       </c>
       <c r="H14" s="8">
-        <v>175.76</v>
+        <v>795.72</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -825,25 +825,25 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>3473</v>
+        <v>3532</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>59</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>150.44999999999999</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>44308</v>
+        <v>44334</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
@@ -852,22 +852,22 @@
         <v>7507</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="11">SUM(C16,-C18)</f>
-        <v>136</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16:F17" si="12">D16*E16</f>
-        <v>640.55999999999995</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8">
         <f>SUM(F16,F17)</f>
-        <v>824.16</v>
+        <v>0</v>
       </c>
       <c r="H16" s="8">
-        <v>761.3</v>
+        <v>175.76</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -879,46 +879,46 @@
         <v>3473</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="11"/>
-        <v>72</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="12"/>
-        <v>183.6</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>44305</v>
+        <v>44308</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>7371</v>
+        <v>7507</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" ref="D18:D21" si="13">SUM(C18,-C20)</f>
-        <v>142</v>
+        <f t="shared" ref="D18:D19" si="13">SUM(C18,-C20)</f>
+        <v>136</v>
       </c>
       <c r="E18" s="3">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18:F19" si="14">D18*E18</f>
-        <v>668.82</v>
+        <v>640.55999999999995</v>
       </c>
       <c r="G18" s="8">
         <f>SUM(F18,F19)</f>
-        <v>811.62</v>
+        <v>824.16</v>
       </c>
       <c r="H18" s="8">
-        <v>773.66</v>
+        <v>761.3</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -927,49 +927,49 @@
         <v>9</v>
       </c>
       <c r="C19" s="3">
-        <v>3401</v>
+        <v>3473</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="13"/>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E19" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="14"/>
-        <v>142.79999999999998</v>
+        <v>183.6</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>44295</v>
+        <v>44305</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="3">
-        <v>7229</v>
+        <v>7371</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="13"/>
-        <v>109</v>
+        <f t="shared" ref="D20:D23" si="15">SUM(C20,-C22)</f>
+        <v>142</v>
       </c>
       <c r="E20" s="3">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" si="15">D20*E20</f>
-        <v>513.39</v>
+        <f t="shared" ref="F20:F21" si="16">D20*E20</f>
+        <v>668.82</v>
       </c>
       <c r="G20" s="8">
         <f>SUM(F20,F21)</f>
-        <v>725.04</v>
+        <v>811.62</v>
       </c>
       <c r="H20" s="8">
-        <v>691.1</v>
+        <v>773.66</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -978,49 +978,49 @@
         <v>9</v>
       </c>
       <c r="C21" s="3">
-        <v>3345</v>
+        <v>3401</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="13"/>
-        <v>83</v>
+        <f t="shared" si="15"/>
+        <v>56</v>
       </c>
       <c r="E21" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="15"/>
-        <v>211.64999999999998</v>
+        <f t="shared" si="16"/>
+        <v>142.79999999999998</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>44266</v>
+        <v>44295</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="3">
-        <v>7120</v>
+        <v>7229</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" ref="D22:D29" si="16">SUM(C22,-C24)</f>
-        <v>146</v>
+        <f t="shared" si="15"/>
+        <v>109</v>
       </c>
       <c r="E22" s="3">
         <v>4.71</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" ref="F22:F23" si="17">D22*E22</f>
-        <v>687.66</v>
+        <v>513.39</v>
       </c>
       <c r="G22" s="8">
         <f>SUM(F22,F23)</f>
-        <v>812.6099999999999</v>
+        <v>725.04</v>
       </c>
       <c r="H22" s="8">
-        <v>774.61</v>
+        <v>691.1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1029,49 +1029,49 @@
         <v>9</v>
       </c>
       <c r="C23" s="3">
-        <v>3262</v>
+        <v>3345</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="16"/>
-        <v>49</v>
+        <f t="shared" si="15"/>
+        <v>83</v>
       </c>
       <c r="E23" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="17"/>
-        <v>124.94999999999999</v>
+        <v>211.64999999999998</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
-        <v>44244</v>
+        <v>44266</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="3">
-        <v>6974</v>
+        <v>7120</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="16"/>
-        <v>123</v>
+        <f t="shared" ref="D24:D31" si="18">SUM(C24,-C26)</f>
+        <v>146</v>
       </c>
       <c r="E24" s="3">
         <v>4.71</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" ref="F24:F25" si="18">D24*E24</f>
-        <v>579.33000000000004</v>
+        <f t="shared" ref="F24:F25" si="19">D24*E24</f>
+        <v>687.66</v>
       </c>
       <c r="G24" s="8">
         <f>SUM(F24,F25)</f>
-        <v>768.03</v>
+        <v>812.6099999999999</v>
       </c>
       <c r="H24" s="8">
-        <v>768.03</v>
+        <v>774.61</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1080,49 +1080,49 @@
         <v>9</v>
       </c>
       <c r="C25" s="3">
-        <v>3213</v>
+        <v>3262</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="16"/>
-        <v>74</v>
+        <f t="shared" si="18"/>
+        <v>49</v>
       </c>
       <c r="E25" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="18"/>
-        <v>188.7</v>
+        <f t="shared" si="19"/>
+        <v>124.94999999999999</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
-        <v>44236</v>
+        <v>44244</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="3">
-        <v>6851</v>
+        <v>6974</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="16"/>
-        <v>164</v>
+        <f t="shared" si="18"/>
+        <v>123</v>
       </c>
       <c r="E26" s="3">
         <v>4.71</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" ref="F26:F27" si="19">D26*E26</f>
-        <v>772.43999999999994</v>
+        <f t="shared" ref="F26:F27" si="20">D26*E26</f>
+        <v>579.33000000000004</v>
       </c>
       <c r="G26" s="8">
         <f>SUM(F26,F27)</f>
-        <v>854.04</v>
+        <v>768.03</v>
       </c>
       <c r="H26" s="8">
-        <v>854.04</v>
+        <v>768.03</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1131,49 +1131,49 @@
         <v>9</v>
       </c>
       <c r="C27" s="3">
-        <v>3139</v>
+        <v>3213</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="16"/>
-        <v>32</v>
+        <f t="shared" si="18"/>
+        <v>74</v>
       </c>
       <c r="E27" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="19"/>
-        <v>81.599999999999994</v>
+        <f t="shared" si="20"/>
+        <v>188.7</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>44068</v>
+      <c r="A28" s="12">
+        <v>44236</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="3">
-        <v>6687</v>
+        <v>6851</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="16"/>
-        <v>149</v>
+        <f t="shared" si="18"/>
+        <v>164</v>
       </c>
       <c r="E28" s="3">
         <v>4.71</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" ref="F28:F37" si="20">D28*E28</f>
-        <v>701.79</v>
+        <f t="shared" ref="F28:F29" si="21">D28*E28</f>
+        <v>772.43999999999994</v>
       </c>
       <c r="G28" s="8">
         <f>SUM(F28,F29)</f>
-        <v>826.74</v>
+        <v>854.04</v>
       </c>
       <c r="H28" s="8">
-        <v>826.74</v>
+        <v>854.04</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1182,49 +1182,49 @@
         <v>9</v>
       </c>
       <c r="C29" s="3">
-        <v>3107</v>
+        <v>3139</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="16"/>
-        <v>49</v>
+        <f t="shared" si="18"/>
+        <v>32</v>
       </c>
       <c r="E29" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="20"/>
-        <v>124.94999999999999</v>
+        <f t="shared" si="21"/>
+        <v>81.599999999999994</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>44005</v>
+        <v>44068</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="3">
-        <v>6538</v>
+        <v>6687</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" ref="D30:D37" si="21">SUM(C30,-C32)</f>
-        <v>164</v>
+        <f t="shared" si="18"/>
+        <v>149</v>
       </c>
       <c r="E30" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="20"/>
-        <v>736.36</v>
+        <f t="shared" ref="F30:F39" si="22">D30*E30</f>
+        <v>701.79</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" ref="G30:G36" si="22">SUM(F30,F31)</f>
-        <v>891.88</v>
+        <f>SUM(F30,F31)</f>
+        <v>826.74</v>
       </c>
       <c r="H30" s="8">
-        <v>902.44</v>
+        <v>826.74</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1233,49 +1233,49 @@
         <v>9</v>
       </c>
       <c r="C31" s="3">
-        <v>3058</v>
+        <v>3107</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="21"/>
-        <v>64</v>
+        <f t="shared" si="18"/>
+        <v>49</v>
       </c>
       <c r="E31" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="20"/>
-        <v>155.52000000000001</v>
+        <f t="shared" si="22"/>
+        <v>124.94999999999999</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>43948</v>
+        <v>44005</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="3">
-        <v>6374</v>
+        <v>6538</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="21"/>
-        <v>179</v>
+        <f t="shared" ref="D32:D39" si="23">SUM(C32,-C34)</f>
+        <v>164</v>
       </c>
       <c r="E32" s="3">
         <v>4.49</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="20"/>
-        <v>803.71</v>
+        <f t="shared" si="22"/>
+        <v>736.36</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="22"/>
-        <v>966.52</v>
+        <f t="shared" ref="G32:G38" si="24">SUM(F32,F33)</f>
+        <v>891.88</v>
       </c>
       <c r="H32" s="8">
-        <v>978.16</v>
+        <v>902.44</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1284,49 +1284,49 @@
         <v>9</v>
       </c>
       <c r="C33" s="3">
-        <v>2994</v>
+        <v>3058</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="21"/>
-        <v>67</v>
+        <f t="shared" si="23"/>
+        <v>64</v>
       </c>
       <c r="E33" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="20"/>
-        <v>162.81</v>
+        <f t="shared" si="22"/>
+        <v>155.52000000000001</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>43901</v>
+        <v>43948</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="3">
-        <v>6195</v>
+        <v>6374</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="21"/>
-        <v>277</v>
+        <f t="shared" si="23"/>
+        <v>179</v>
       </c>
       <c r="E34" s="3">
         <v>4.49</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="20"/>
-        <v>1243.73</v>
+        <f t="shared" si="22"/>
+        <v>803.71</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" si="22"/>
-        <v>1540.19</v>
+        <f t="shared" si="24"/>
+        <v>966.52</v>
       </c>
       <c r="H34" s="8">
-        <v>1557.47</v>
+        <v>978.16</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1335,49 +1335,49 @@
         <v>9</v>
       </c>
       <c r="C35" s="3">
-        <v>2927</v>
+        <v>2994</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="21"/>
-        <v>122</v>
+        <f t="shared" si="23"/>
+        <v>67</v>
       </c>
       <c r="E35" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="20"/>
-        <v>296.46000000000004</v>
-      </c>
-      <c r="G35" s="3"/>
+        <f t="shared" si="22"/>
+        <v>162.81</v>
+      </c>
+      <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>43874</v>
+        <v>43901</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="3">
-        <v>5918</v>
+        <v>6195</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="21"/>
-        <v>285</v>
+        <f t="shared" si="23"/>
+        <v>277</v>
       </c>
       <c r="E36" s="3">
         <v>4.49</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="20"/>
-        <v>1279.6500000000001</v>
+        <f t="shared" si="22"/>
+        <v>1243.73</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="22"/>
-        <v>1571.25</v>
+        <f t="shared" si="24"/>
+        <v>1540.19</v>
       </c>
       <c r="H36" s="8">
-        <v>1589.25</v>
+        <v>1557.47</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1386,90 +1386,141 @@
         <v>9</v>
       </c>
       <c r="C37" s="3">
-        <v>2805</v>
+        <v>2927</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="21"/>
-        <v>120</v>
+        <f t="shared" si="23"/>
+        <v>122</v>
       </c>
       <c r="E37" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="20"/>
-        <v>291.60000000000002</v>
-      </c>
-      <c r="G37" s="8"/>
+        <f t="shared" si="22"/>
+        <v>296.46000000000004</v>
+      </c>
+      <c r="G37" s="3"/>
       <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
+        <v>43874</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5918</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="23"/>
+        <v>285</v>
+      </c>
+      <c r="E38" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="22"/>
+        <v>1279.6500000000001</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="24"/>
+        <v>1571.25</v>
+      </c>
+      <c r="H38" s="8">
+        <v>1589.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2805</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="23"/>
+        <v>120</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="22"/>
+        <v>291.60000000000002</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>43847</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="10">
+      <c r="B40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="10">
         <v>5633</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="10">
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="10">
         <v>2685</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="8">
-        <f>SUM(G6:G39)</f>
-        <v>13926.08</v>
-      </c>
-      <c r="H40" s="8">
-        <f>SUM(H6:H39)</f>
-        <v>13986.56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="13">
-        <f>SUM(H40,-G40)</f>
-        <v>60.479999999999563</v>
-      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="8">
+        <f>SUM(G4:G41)</f>
+        <v>15423.999999999998</v>
+      </c>
+      <c r="H42" s="8">
+        <f>SUM(H4:H41)</f>
+        <v>15484.480000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="13">
+        <f>SUM(H42,-G42)</f>
+        <v>60.480000000003201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
